--- a/PRJDatabase.xlsx
+++ b/PRJDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Semester4\PRJ301\PRJ301-MyAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527B5E89-E84E-45CA-B9E4-66CCF99524C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FFC10D-AEA1-442B-A8E4-0EADF8EE4BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{2E1FD5D1-B489-44D3-AB29-28615AE69C2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E1FD5D1-B489-44D3-AB29-28615AE69C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Student</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>GroupID</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>SWE201c</t>
+  </si>
+  <si>
+    <t>GroupName</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C60A7B-0152-4052-9B2D-D7707C0E8D6B}">
   <dimension ref="A2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -718,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -747,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -818,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -835,34 +835,34 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>44690</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>44692</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>44694</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -993,12 +993,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1007,233 +1007,257 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
